--- a/tests/databooks/databook_sir_twopop.xlsx
+++ b/tests/databooks/databook_sir_twopop.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50400C4-12B5-4D09-A826-0DE80603096E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Program Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="State Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="State Variables" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,38 +62,228 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the abbreviated name of a population.
-It is only ever used as a reference label within the code.
-Note: It should be in lower case without spaces.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the full name of a program.
-It will appear in plots and analysis outputs.
-Note: It should be in title or sentence case.</t>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
         </r>
       </text>
     </comment>
@@ -103,25 +292,25 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a compartment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -152,20 +341,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -196,20 +385,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -240,242 +429,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a compartment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -526,15 +485,6 @@
   </si>
   <si>
     <t>Fraction</t>
-  </si>
-  <si>
-    <t>data_start</t>
-  </si>
-  <si>
-    <t>data_end</t>
-  </si>
-  <si>
-    <t>data_dt</t>
   </si>
   <si>
     <t>adults</t>
@@ -552,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,6 +647,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -732,6 +699,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -907,19 +891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.68359375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,20 +911,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -950,46 +934,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="2" width="20.68359375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1057,10 +1016,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1072,10 +1031,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1087,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,10 +1114,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1171,10 +1130,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1187,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1255,10 +1214,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1270,10 +1229,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1285,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,10 +1312,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1369,10 +1328,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1385,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1453,10 +1412,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1469,10 +1428,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1487,13 +1446,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B14:B15 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B14:B15 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1502,22 +1461,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1585,10 +1544,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1600,10 +1559,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1616,7 +1575,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,10 +1643,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1699,10 +1658,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1714,7 +1673,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1782,10 +1741,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1854,10 +1813,10 @@
         <v>3.54528E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Children</v>
+        <f>'Population Definitions'!A3</f>
+        <v>children</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1915,7 +1874,7 @@
         <v>0.08</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="F11:W11" si="0">U10*1.5</f>
+        <f t="shared" ref="U11" si="0">U10*1.5</f>
         <v>6.7986480000000002E-2</v>
       </c>
       <c r="V11">
@@ -1924,53 +1883,14 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/databooks/databook_sir_twopop.xlsx
+++ b/tests/databooks/databook_sir_twopop.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50400C4-12B5-4D09-A826-0DE80603096E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8EBF7-E1FD-4140-8F52-4A035626D9E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="3" r:id="rId2"/>
     <sheet name="State Variables" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -445,9 +445,6 @@
     <t>Transmission probability per contact</t>
   </si>
   <si>
-    <t>Quantity Type</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Children</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -913,18 +913,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1022,13 +1022,13 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1037,24 +1037,24 @@
         <v>children</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>2000</v>
@@ -1120,14 +1120,14 @@
         <v>adults</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f>IF(SUMPRODUCT(--(E6:W6&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1136,25 +1136,25 @@
         <v>children</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f>IF(SUMPRODUCT(--(E7:W7&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>2000</v>
@@ -1220,13 +1220,13 @@
         <v>adults</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1235,24 +1235,24 @@
         <v>children</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>2000</v>
@@ -1318,14 +1318,14 @@
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1334,25 +1334,25 @@
         <v>children</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f>IF(SUMPRODUCT(--(E15:W15&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E17" s="1">
         <v>2000</v>
@@ -1418,14 +1418,14 @@
         <v>adults</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f>IF(SUMPRODUCT(--(E18:W18&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1434,14 +1434,14 @@
         <v>children</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <f>IF(SUMPRODUCT(--(E19:W19&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -1478,13 +1478,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1550,13 +1550,13 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1565,10 +1565,10 @@
         <v>children</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f>E7*(1-E11)</f>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>2000</v>
@@ -1649,13 +1649,13 @@
         <v>adults</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>children</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>2000</v>
@@ -1747,13 +1747,13 @@
         <v>adults</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0.28571428999999998</v>
@@ -1819,14 +1819,14 @@
         <v>children</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f>C10*1.5</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0.4</v>
